--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity项目\GEFramework\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GEFramwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B7866-B403-4833-98C7-EBDFCB3AB811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="840" windowWidth="14940" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="840" windowWidth="14940" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -191,13 +190,21 @@
   </si>
   <si>
     <t>ET/UI/UIGroupConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,6 +773,9 @@
       <c r="E10" t="s">
         <v>52</v>
       </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -779,6 +789,9 @@
       </c>
       <c r="E11" t="s">
         <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
